--- a/EDA_Process/C_Morlet_SVM/results/ASD_VS_TD.xlsx
+++ b/EDA_Process/C_Morlet_SVM/results/ASD_VS_TD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabWork\ThesisProject\Music_Autism_Robot\EDA_Process\C_Morlet_SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabWork\ThesisProject\Music_Autism_Robot\EDA_Process\C_Morlet_SVM\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C89F8-3D80-4EF1-9B08-C18A1CB9D112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C0562-DE21-46F7-B746-B95B561248B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8553" yWindow="0" windowWidth="9100" windowHeight="9467" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16440" yWindow="2205" windowWidth="13140" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c=0.1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>SVMAccuracy : 78.125</t>
   </si>
@@ -106,8 +106,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,101 +426,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.64453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1171875" customWidth="1"/>
-    <col min="3" max="3" width="17.76171875" customWidth="1"/>
-    <col min="4" max="4" width="17.64453125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -525,7 +539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -539,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -553,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -567,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -581,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -595,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -609,7 +623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -625,5 +639,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>